--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-PremiumClass.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-PremiumClass.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:17:16+00:00</t>
+    <t>2024-09-26T08:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-PremiumClass.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-moped-ext-PremiumClass.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:30:44+00:00</t>
+    <t>2024-09-26T08:39:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -341,7 +341,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://tbd.at/MOPED-Sonderklasse</t>
+    <t>http://example.org/ValueSet/moped-Sonderklasse-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -696,7 +696,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="32.3359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
